--- a/Coeffs/coefficients_with_terms.xlsx
+++ b/Coeffs/coefficients_with_terms.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihangwei/Documents/Flow_PDE_FIND/Coeffs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research_Projects\Flow_PDE_FIND\Coeffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B51FEC49-3278-2A4A-9563-C84EB019C332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110CF8D1-A660-4D9D-B87E-A428EC76308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="12160" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="6094" yWindow="4611" windowWidth="20529" windowHeight="12678" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coefficients" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>k</t>
   </si>
@@ -187,9 +188,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -668,9 +669,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -730,9 +732,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -770,7 +772,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -876,7 +878,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,23 +1020,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection sqref="A1:BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1201,9 +1203,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1.5656766999999999E-2</v>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>5.6893515999999998E-2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1215,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1.3505645E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7.5620280000000002E-3</v>
+        <v>-1.5574347000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>-1.0245588999999999E-2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>2.5085210000000001E-4</v>
+      <c r="J2">
+        <v>2.3389040999999999E-2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1242,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-4.3316778E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>-2.6237410000000002E-3</v>
+        <v>-5.6196856000000003E-3</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1265,8 +1267,8 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="1">
-        <v>6.7364979999999996E-4</v>
+      <c r="V2">
+        <v>-5.5530930000000003E-3</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1281,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>3.503248E-4</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AC2" s="1">
-        <v>-3.3774209999999998E-3</v>
+      <c r="AC2">
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1304,59 +1306,59 @@
       <c r="AH2">
         <v>0</v>
       </c>
-      <c r="AI2" s="1">
-        <v>-4.5736507000000003E-2</v>
+      <c r="AI2">
+        <v>0.26187120000000003</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2" s="1">
-        <v>-2.6433727000000001E-2</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>-1.2626884E-2</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
+      <c r="AK2">
+        <v>-3.6868114E-2</v>
+      </c>
+      <c r="AL2">
+        <v>-8.8977819999999999E-2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1.0131091000000001E-5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-1.2327949499999999E-2</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-4.6590831999999998E-4</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>4.6544757999999998E-4</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>-2.31609E-4</v>
       </c>
       <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>-4.6056424999999998E-3</v>
+        <v>1.0911314E-2</v>
+      </c>
+      <c r="AU2">
+        <v>-3.5913736000000002E-2</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>7.0098082999999996E-4</v>
       </c>
       <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>2.5234900000000002E-4</v>
+        <v>-3.2253150000000001E-2</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>-4.0435653999999997E-5</v>
+      </c>
+      <c r="AZ2">
+        <v>2.5628803000000001E-3</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1365,10 +1367,173 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>3.7126793000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95979D80-AC95-4C16-8F3B-5BE980FF3CCA}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>5.6893515999999998E-2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-1.3505645E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1.5574347000000001E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1.0245588999999999E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.3389040999999999E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-4.3316778E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-5.6196856000000003E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-5.5530930000000003E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.503248E-4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.26187120000000003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-3.6868114E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-8.8977819999999999E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.0131091000000001E-5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-1.2327949499999999E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-4.6590831999999998E-4</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4.6544757999999998E-4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-2.31609E-4</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.0911314E-2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-3.5913736000000002E-2</v>
+      </c>
+      <c r="T2" s="2">
+        <v>7.0098082999999996E-4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-3.2253150000000001E-2</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-4.0435653999999997E-5</v>
+      </c>
+      <c r="W2" s="2">
+        <v>2.5628803000000001E-3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3.7126793000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>